--- a/public/assets/images/Same_Bank_Bulk_Transfer_File.xlsx
+++ b/public/assets/images/Same_Bank_Bulk_Transfer_File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\corporate-internet-banking\public\assets\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\New-SLCB-Internet-Banking\public\assets\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82AACA9-90EF-4F33-9693-D235D205F86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D4D057-4A8D-487A-9BE6-24789147AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6D7C6B7F-C0FC-426A-A9D1-C4B100476472}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6D7C6B7F-C0FC-426A-A9D1-C4B100476472}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Account Number</t>
   </si>
@@ -59,10 +51,13 @@
     <t>Salary 2018 CIB TEST</t>
   </si>
   <si>
-    <t>002~ROKEL COMMERCIAL BANK</t>
-  </si>
-  <si>
-    <t>ROK1233</t>
+    <t>004004300426270270</t>
+  </si>
+  <si>
+    <t>003~SIERRA LEONE COMMERCIAL BANK</t>
+  </si>
+  <si>
+    <t>SLCB1233</t>
   </si>
 </sst>
 </file>
@@ -141,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,17 +454,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -493,8 +488,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>4004300426270270</v>
+      <c r="A2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -506,10 +501,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
